--- a/0425_1.xlsx
+++ b/0425_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zain\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zain\GolandProjects\autoCompare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1463CBD-42DF-4F62-96B5-9CC43160C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB0F11-EA89-4D0D-9ED0-048EA1BBA5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="7245" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="3570" windowWidth="38700" windowHeight="15345" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIS01" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5154" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="677">
   <si>
     <t>Other Check</t>
   </si>
@@ -2178,9 +2178,6 @@
   </si>
   <si>
     <t>检查日期小于最早检查日期</t>
-  </si>
-  <si>
-    <t>comnets</t>
   </si>
   <si>
     <t>flag</t>
@@ -2462,13 +2459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -2484,7 +2481,7 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +2494,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1">
+    <row r="3" spans="1:10" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2526,13 +2523,10 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>674</v>
-      </c>
-      <c r="K3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.1" customHeight="1">
+    <row r="4" spans="1:10" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2561,10 +2555,10 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2591,10 +2585,10 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="101.1" customHeight="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="101.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2612,7 +2606,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -2621,10 +2615,10 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2642,17 +2636,17 @@
         <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2672,17 +2666,17 @@
         <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2702,17 +2696,17 @@
         <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2730,17 +2724,17 @@
         <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2758,17 +2752,17 @@
         <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2786,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
@@ -2795,10 +2789,10 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>41</v>
@@ -2827,10 +2821,10 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2848,17 +2842,17 @@
         <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2876,17 +2870,17 @@
         <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2904,14 +2898,14 @@
         <v>45</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1">
@@ -2932,14 +2926,14 @@
         <v>45</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.1" customHeight="1">
@@ -2962,14 +2956,14 @@
         <v>29</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.1" customHeight="1">
@@ -2992,14 +2986,14 @@
         <v>49</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.1" customHeight="1">
@@ -3022,14 +3016,14 @@
         <v>50</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.1" customHeight="1">
@@ -3050,14 +3044,14 @@
         <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.1" customHeight="1">
@@ -3080,14 +3074,14 @@
         <v>59</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1">
@@ -3110,14 +3104,14 @@
         <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.1" customHeight="1">
@@ -3140,14 +3134,14 @@
         <v>63</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.1" customHeight="1">
@@ -3170,14 +3164,14 @@
         <v>63</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.1" customHeight="1">
@@ -3200,14 +3194,14 @@
         <v>63</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.1" customHeight="1">
@@ -3230,14 +3224,14 @@
         <v>59</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.1" customHeight="1">
@@ -3258,14 +3252,14 @@
         <v>54</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29.1" customHeight="1">
@@ -3288,14 +3282,14 @@
         <v>71</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29.1" customHeight="1">
@@ -3318,7 +3312,7 @@
         <v>73</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>74</v>
@@ -3345,7 +3339,7 @@
         <v>71</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>74</v>
@@ -3372,7 +3366,7 @@
         <v>71</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>74</v>
@@ -3399,7 +3393,7 @@
         <v>71</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>72</v>
@@ -3424,7 +3418,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>55</v>
@@ -3451,7 +3445,7 @@
         <v>73</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>72</v>
@@ -3470,13 +3464,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -3493,7 +3487,7 @@
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.95" customHeight="1">
+    <row r="1" spans="1:11" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>154</v>
       </c>
@@ -3507,7 +3501,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="14.1" customHeight="1">
+    <row r="3" spans="1:11" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3538,8 +3532,11 @@
       <c r="J3" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.1" customHeight="1">
+      <c r="K3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3559,7 +3556,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.1" customHeight="1">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3603,13 +3600,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -3625,7 +3622,7 @@
     <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>162</v>
       </c>
@@ -3638,7 +3635,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="14.1" customHeight="1">
+    <row r="3" spans="1:10" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3666,8 +3663,11 @@
       <c r="I3" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.1" customHeight="1">
+      <c r="J3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.1" customHeight="1">
+    <row r="5" spans="1:10" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.1" customHeight="1">
+    <row r="6" spans="1:10" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.1" customHeight="1">
+    <row r="7" spans="1:10" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.1" customHeight="1">
+    <row r="8" spans="1:10" ht="14.1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.1" customHeight="1">
+    <row r="9" spans="1:10" ht="14.1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.1" customHeight="1">
+    <row r="10" spans="1:10" ht="14.1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.1" customHeight="1">
+    <row r="11" spans="1:10" ht="14.1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.1" customHeight="1">
+    <row r="12" spans="1:10" ht="14.1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.1" customHeight="1">
+    <row r="13" spans="1:10" ht="14.1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.1" customHeight="1">
+    <row r="14" spans="1:10" ht="14.1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.1" customHeight="1">
+    <row r="15" spans="1:10" ht="14.1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -4019,13 +4019,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -4051,7 +4051,7 @@
     <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.95" customHeight="1">
+    <row r="1" spans="1:20" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>167</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="14.1" customHeight="1">
+    <row r="3" spans="1:20" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4132,8 +4132,11 @@
       <c r="S3" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.1" customHeight="1">
+      <c r="T3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="14.1" customHeight="1">
+    <row r="5" spans="1:20" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.1" customHeight="1">
+    <row r="6" spans="1:20" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.1" customHeight="1">
+    <row r="7" spans="1:20" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4339,13 +4342,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -4371,7 +4374,7 @@
     <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.95" customHeight="1">
+    <row r="1" spans="1:20" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>182</v>
       </c>
@@ -4394,7 +4397,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="14.1" customHeight="1">
+    <row r="3" spans="1:20" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4452,8 +4455,11 @@
       <c r="S3" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.1" customHeight="1">
+      <c r="T3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4500,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="14.1" customHeight="1">
+    <row r="5" spans="1:20" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.1" customHeight="1">
+    <row r="6" spans="1:20" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4592,7 +4598,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.1" customHeight="1">
+    <row r="7" spans="1:20" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -7113,13 +7119,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -7132,7 +7138,7 @@
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>77</v>
       </c>
@@ -7142,7 +7148,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7161,8 +7167,11 @@
       <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1">
+      <c r="G3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7181,8 +7190,11 @@
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1">
+      <c r="G4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7202,7 +7214,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1">
+    <row r="6" spans="1:7" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -7222,7 +7234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1">
+    <row r="7" spans="1:7" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -7242,7 +7254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.1" customHeight="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -7280,7 +7292,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -9089,13 +9101,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -9109,7 +9121,7 @@
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.95" customHeight="1">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>83</v>
       </c>
@@ -9120,7 +9132,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="14.1" customHeight="1">
+    <row r="3" spans="1:8" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9142,8 +9154,11 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1">
+      <c r="H3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -9161,8 +9176,11 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1">
+      <c r="H4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -9183,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1">
+    <row r="6" spans="1:8" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -9206,7 +9224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1">
+    <row r="7" spans="1:8" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -13873,13 +13891,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -13894,7 +13912,7 @@
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.95" customHeight="1">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>89</v>
       </c>
@@ -13906,7 +13924,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1">
+    <row r="3" spans="1:9" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -13931,8 +13949,11 @@
       <c r="H3" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -13949,8 +13970,11 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -18734,13 +18758,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -18755,7 +18779,7 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.95" customHeight="1">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>98</v>
       </c>
@@ -18767,7 +18791,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1">
+    <row r="3" spans="1:9" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -18792,8 +18816,11 @@
       <c r="H3" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -18816,8 +18843,11 @@
         <v>95</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -18841,7 +18871,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="14.1" customHeight="1">
+    <row r="6" spans="1:9" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -18865,7 +18895,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="14.1" customHeight="1">
+    <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -21949,13 +21979,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -21972,7 +22002,7 @@
     <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1">
+    <row r="1" spans="1:12" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>104</v>
       </c>
@@ -21987,7 +22017,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1">
+    <row r="3" spans="1:12" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -22021,8 +22051,11 @@
       <c r="K3" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -22046,8 +22079,11 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -22068,7 +22104,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -23768,13 +23804,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -23804,7 +23840,7 @@
     <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21.95" customHeight="1">
+    <row r="1" spans="1:25" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>112</v>
       </c>
@@ -23832,7 +23868,7 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
     </row>
-    <row r="3" spans="1:24" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -23905,8 +23941,11 @@
       <c r="X3" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="14.1" customHeight="1">
+      <c r="Y3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -23939,8 +23978,11 @@
       <c r="X4" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="14.1" customHeight="1">
+      <c r="Y4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -23984,7 +24026,7 @@
       </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -24044,7 +24086,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -24112,7 +24154,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -24182,7 +24224,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -24252,7 +24294,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -24324,7 +24366,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -24390,6 +24432,11 @@
       <c r="W11" s="3"/>
       <c r="X11" s="2">
         <v>-14</v>
+      </c>
+    </row>
+    <row r="21" spans="18:18" ht="12" customHeight="1">
+      <c r="R21" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -24404,13 +24451,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -24428,7 +24475,7 @@
     <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1">
+    <row r="1" spans="1:12" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>140</v>
       </c>
@@ -24443,7 +24490,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1">
+    <row r="3" spans="1:12" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -24477,8 +24524,11 @@
       <c r="K3" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -24503,7 +24553,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1">
+    <row r="5" spans="1:12" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -24524,7 +24574,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -24571,13 +24621,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -24595,7 +24645,7 @@
     <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.95" customHeight="1">
+    <row r="1" spans="1:13" ht="21.95" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>148</v>
       </c>
@@ -24611,7 +24661,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="14.1" customHeight="1">
+    <row r="3" spans="1:13" ht="14.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -24648,8 +24698,11 @@
       <c r="L3" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.1" customHeight="1">
+      <c r="M3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -24681,7 +24734,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="14.1" customHeight="1">
+    <row r="5" spans="1:13" ht="14.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -24717,7 +24770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.1" customHeight="1">
+    <row r="6" spans="1:13" ht="14.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -24747,7 +24800,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
